--- a/娱乐/影视.xlsx
+++ b/娱乐/影视.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23805" windowHeight="13860" activeTab="2"/>
+    <workbookView windowHeight="16215" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="动画动漫" sheetId="2" r:id="rId1"/>
-    <sheet name="魔幻奇幻" sheetId="3" r:id="rId2"/>
-    <sheet name="科学幻想" sheetId="1" r:id="rId3"/>
+    <sheet name="科学幻想" sheetId="1" r:id="rId1"/>
+    <sheet name="奇幻魔幻" sheetId="2" r:id="rId2"/>
+    <sheet name="动画动漫" sheetId="3" r:id="rId3"/>
     <sheet name="恐怖悬疑" sheetId="4" r:id="rId4"/>
     <sheet name="超级英雄" sheetId="5" r:id="rId5"/>
     <sheet name="剧情佳作" sheetId="6" r:id="rId6"/>
@@ -32,33 +32,1614 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>上映/播放时间</t>
-  </si>
-  <si>
-    <t>影视名称</t>
-  </si>
-  <si>
-    <t>标签</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="536">
+  <si>
+    <t>上映时间</t>
+  </si>
+  <si>
+    <t>电影名称</t>
   </si>
   <si>
     <t>相关内容</t>
   </si>
   <si>
-    <t>知名人物</t>
+    <t>1977-05-25</t>
+  </si>
+  <si>
+    <t>《星球大战4：新希望》</t>
+  </si>
+  <si>
+    <t>1980-05-21</t>
+  </si>
+  <si>
+    <t>《星球大战5：帝国反击战》</t>
+  </si>
+  <si>
+    <t>1982-06-25</t>
+  </si>
+  <si>
+    <t>《银翼杀手》</t>
+  </si>
+  <si>
+    <t>《就像泪水消失在雨中》《危险的日子：银翼杀手制作始末》</t>
+  </si>
+  <si>
+    <t>1983-05-25</t>
+  </si>
+  <si>
+    <t>《星球大战6：绝地归来》</t>
+  </si>
+  <si>
+    <t>1984-10-26</t>
+  </si>
+  <si>
+    <t>《终结者》</t>
+  </si>
+  <si>
+    <t>1991-07-03</t>
+  </si>
+  <si>
+    <t>《终结者2：审判日》</t>
+  </si>
+  <si>
+    <t>1999-03-31</t>
+  </si>
+  <si>
+    <t>《黑客帝国》</t>
+  </si>
+  <si>
+    <t>1999-05-19</t>
+  </si>
+  <si>
+    <t>《星球大战前传1：幽灵的威胁》</t>
+  </si>
+  <si>
+    <t>2002-05-16</t>
+  </si>
+  <si>
+    <t>《星球大战前传2：克隆人的进攻》</t>
+  </si>
+  <si>
+    <t>2003-05-15</t>
+  </si>
+  <si>
+    <t>《黑客帝国2：重装上阵》</t>
+  </si>
+  <si>
+    <t>《黑客帝国动画版》</t>
+  </si>
+  <si>
+    <t>2003-11-05</t>
+  </si>
+  <si>
+    <t>《黑客帝国3：矩阵革命》</t>
+  </si>
+  <si>
+    <t>2005-05-19</t>
+  </si>
+  <si>
+    <t>《星球大战前传3：西斯的复仇》</t>
+  </si>
+  <si>
+    <t>2007-07-03</t>
+  </si>
+  <si>
+    <t>《变形金刚》</t>
+  </si>
+  <si>
+    <t>2009-06-24</t>
+  </si>
+  <si>
+    <t>《变形金刚2》</t>
+  </si>
+  <si>
+    <t>2009-08-14</t>
+  </si>
+  <si>
+    <t>《第九区》</t>
+  </si>
+  <si>
+    <t>2014-11-05</t>
+  </si>
+  <si>
+    <t>《星际穿越》</t>
+  </si>
+  <si>
+    <t>2015-10-02</t>
+  </si>
+  <si>
+    <t>《火星救援》</t>
+  </si>
+  <si>
+    <t>2016-12-16</t>
+  </si>
+  <si>
+    <t>《星球大战外传：侠盗一号》</t>
+  </si>
+  <si>
+    <t>2017-10-06</t>
+  </si>
+  <si>
+    <t>《银翼杀手2049》</t>
+  </si>
+  <si>
+    <t>《2022黑暗浩劫》《2036复制人黎明》《2048无处可逃》</t>
+  </si>
+  <si>
+    <t>2018-03-30</t>
+  </si>
+  <si>
+    <t>《头号玩家》</t>
+  </si>
+  <si>
+    <t>2019-02-05</t>
+  </si>
+  <si>
+    <t>《流浪地球》</t>
+  </si>
+  <si>
+    <t>2021-08-13</t>
+  </si>
+  <si>
+    <t>《失控玩家》</t>
+  </si>
+  <si>
+    <t>2022-09-21</t>
+  </si>
+  <si>
+    <t>《安多》</t>
+  </si>
+  <si>
+    <t>2023-01-22</t>
+  </si>
+  <si>
+    <t>《流浪地球2》</t>
   </si>
   <si>
     <t>2024-04-10</t>
   </si>
   <si>
-    <t>《辐射》</t>
-  </si>
-  <si>
-    <t>美剧、游戏改编</t>
-  </si>
-  <si>
-    <t>【导演：乔纳森·诺兰】</t>
+    <t>《辐射》美剧</t>
+  </si>
+  <si>
+    <t>1987-07-18</t>
+  </si>
+  <si>
+    <t>《倩女幽魂》</t>
+  </si>
+  <si>
+    <t>1995-01-21</t>
+  </si>
+  <si>
+    <t>《大话西游之月光宝盒》</t>
+  </si>
+  <si>
+    <t>1995-02-04</t>
+  </si>
+  <si>
+    <t>《大话西游之大圣娶亲》</t>
+  </si>
+  <si>
+    <t>2001-11-16</t>
+  </si>
+  <si>
+    <t>《哈利·波特与魔法石》</t>
+  </si>
+  <si>
+    <t>2001-12-19</t>
+  </si>
+  <si>
+    <t>《指环王：护戒使者》</t>
+  </si>
+  <si>
+    <t>2002-11-15</t>
+  </si>
+  <si>
+    <t>《哈利·波特与密室》</t>
+  </si>
+  <si>
+    <t>2002-12-18</t>
+  </si>
+  <si>
+    <t>《指环王：双塔奇兵》</t>
+  </si>
+  <si>
+    <t>2003-06-28</t>
+  </si>
+  <si>
+    <t>《加勒比海盗：黑珍珠号的诅咒》</t>
+  </si>
+  <si>
+    <t>2003-12-17</t>
+  </si>
+  <si>
+    <t>《指环王：国王归来》</t>
+  </si>
+  <si>
+    <t>2004-05-31</t>
+  </si>
+  <si>
+    <t>《哈利·波特与阿兹卡班的囚徒》</t>
+  </si>
+  <si>
+    <t>2005-07-15</t>
+  </si>
+  <si>
+    <t>《查理和巧克力工厂》</t>
+  </si>
+  <si>
+    <t>2005-11-12</t>
+  </si>
+  <si>
+    <t>《哈利·波特与火焰杯》</t>
+  </si>
+  <si>
+    <t>2005-12-09</t>
+  </si>
+  <si>
+    <t>《纳尼亚传奇》</t>
+  </si>
+  <si>
+    <t>2006-05-16</t>
+  </si>
+  <si>
+    <t>《潘神的迷宫》</t>
+  </si>
+  <si>
+    <t>2006-06-24</t>
+  </si>
+  <si>
+    <t>《加勒比海盗2：聚魂棺》</t>
+  </si>
+  <si>
+    <t>2007-02-16</t>
+  </si>
+  <si>
+    <t>《仙境之桥》</t>
+  </si>
+  <si>
+    <t>2007-05-19</t>
+  </si>
+  <si>
+    <t>《加勒比海盗3：世界的尽头》</t>
+  </si>
+  <si>
+    <t>2007-07-11</t>
+  </si>
+  <si>
+    <t>《哈利·波特与凤凰社》</t>
+  </si>
+  <si>
+    <t>2009-07-15</t>
+  </si>
+  <si>
+    <t>《哈利·波特与混血王子》</t>
+  </si>
+  <si>
+    <t>2010-03-05</t>
+  </si>
+  <si>
+    <t>《爱丽丝梦游仙境》</t>
+  </si>
+  <si>
+    <t>2010-05-28</t>
+  </si>
+  <si>
+    <t>《波斯王子：时之刃》</t>
+  </si>
+  <si>
+    <t>2010-11-19</t>
+  </si>
+  <si>
+    <t>《哈利·波特与死亡圣器（上）》</t>
+  </si>
+  <si>
+    <t>2011-04-17</t>
+  </si>
+  <si>
+    <t>《权力的游戏：第一季》美剧</t>
+  </si>
+  <si>
+    <t>2011-05-01</t>
+  </si>
+  <si>
+    <t>《加勒比海盗4：惊涛怪浪》</t>
+  </si>
+  <si>
+    <t>《加勒比海盗：规则的童话》</t>
+  </si>
+  <si>
+    <t>2011-07-07</t>
+  </si>
+  <si>
+    <t>《哈利·波特与死亡圣器（下）》</t>
+  </si>
+  <si>
+    <t>2012-04-01</t>
+  </si>
+  <si>
+    <t>《权力的游戏：第二季》美剧</t>
+  </si>
+  <si>
+    <t>2012-12-14</t>
+  </si>
+  <si>
+    <t>《霍比特人：意外之旅》</t>
+  </si>
+  <si>
+    <t>2013-02-07</t>
+  </si>
+  <si>
+    <t>《西游降魔篇》</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>《权力的游戏：第三季》美剧</t>
+  </si>
+  <si>
+    <t>2013-12-13</t>
+  </si>
+  <si>
+    <t>《霍比特人：史矛革之战》</t>
+  </si>
+  <si>
+    <t>2014-05-30</t>
+  </si>
+  <si>
+    <t>《沉睡魔咒》</t>
+  </si>
+  <si>
+    <t>2014-06-06</t>
+  </si>
+  <si>
+    <t>《权力的游戏：第四季》美剧</t>
+  </si>
+  <si>
+    <t>2014-12-17</t>
+  </si>
+  <si>
+    <t>《霍比特人：五军之战》</t>
+  </si>
+  <si>
+    <t>2015-02-13</t>
+  </si>
+  <si>
+    <t>《灰姑娘》</t>
+  </si>
+  <si>
+    <t>2015-04-12</t>
+  </si>
+  <si>
+    <t>《权力的游戏：第五季》美剧</t>
+  </si>
+  <si>
+    <t>2016-02-26</t>
+  </si>
+  <si>
+    <t>《神战：权力之眼》</t>
+  </si>
+  <si>
+    <t>2016-04-24</t>
+  </si>
+  <si>
+    <t>《权力的游戏：第六季》美剧</t>
+  </si>
+  <si>
+    <t>2016-05-27</t>
+  </si>
+  <si>
+    <t>《爱丽丝梦游仙境2：镜中奇遇记》</t>
+  </si>
+  <si>
+    <t>2016-11-18</t>
+  </si>
+  <si>
+    <t>《神奇动物在哪里》</t>
+  </si>
+  <si>
+    <t>2017-05-26</t>
+  </si>
+  <si>
+    <t>《加勒比海盗5：死无对证》</t>
+  </si>
+  <si>
+    <t>2017-07-16</t>
+  </si>
+  <si>
+    <t>《权力的游戏：第七季》美剧</t>
+  </si>
+  <si>
+    <t>2019-04-14</t>
+  </si>
+  <si>
+    <t>《权力的游戏：第八季》美剧</t>
+  </si>
+  <si>
+    <t>2019-05-24</t>
+  </si>
+  <si>
+    <t>《阿拉丁》</t>
+  </si>
+  <si>
+    <t>2022-11-23</t>
+  </si>
+  <si>
+    <t>《星期三：第一季》美剧</t>
+  </si>
+  <si>
+    <t>1986-08-02</t>
+  </si>
+  <si>
+    <t>《天空之城》</t>
+  </si>
+  <si>
+    <t>1988-04-16</t>
+  </si>
+  <si>
+    <t>《龙猫》</t>
+  </si>
+  <si>
+    <t>《梅与小猫巴士》</t>
+  </si>
+  <si>
+    <t>1995-11-22</t>
+  </si>
+  <si>
+    <t>《玩具总动员》</t>
+  </si>
+  <si>
+    <t>1999-11-24</t>
+  </si>
+  <si>
+    <t>《玩具总动员2》</t>
+  </si>
+  <si>
+    <t>2001-07-20</t>
+  </si>
+  <si>
+    <t>《千与千寻》</t>
+  </si>
+  <si>
+    <t>2001-11-02</t>
+  </si>
+  <si>
+    <t>《怪兽电力公司》</t>
+  </si>
+  <si>
+    <t>2004-09-05</t>
+  </si>
+  <si>
+    <t>《哈尔的移动城堡》</t>
+  </si>
+  <si>
+    <t>2006-09-02</t>
+  </si>
+  <si>
+    <t>《红辣椒》</t>
+  </si>
+  <si>
+    <t>2006-09-05</t>
+  </si>
+  <si>
+    <t>《虹猫蓝兔七侠传》动漫</t>
+  </si>
+  <si>
+    <t>2007-07-20</t>
+  </si>
+  <si>
+    <t>《大鱼海棠》</t>
+  </si>
+  <si>
+    <t>2007-10-19</t>
+  </si>
+  <si>
+    <t>《美食总动员》</t>
+  </si>
+  <si>
+    <t>《你的老鼠朋友》</t>
+  </si>
+  <si>
+    <t>2008-06-20</t>
+  </si>
+  <si>
+    <t>《功夫熊猫》</t>
+  </si>
+  <si>
+    <t>2008-06-27</t>
+  </si>
+  <si>
+    <t>《机器人总动员》</t>
+  </si>
+  <si>
+    <t>《电焊工波力》</t>
+  </si>
+  <si>
+    <t>2009-05-13</t>
+  </si>
+  <si>
+    <t>《飞屋环游记》</t>
+  </si>
+  <si>
+    <t>《道格的特别任务》</t>
+  </si>
+  <si>
+    <t>2010-06-16</t>
+  </si>
+  <si>
+    <t>《玩具总动员3》</t>
+  </si>
+  <si>
+    <t>《小玩具》《夏威夷假期》</t>
+  </si>
+  <si>
+    <t>2011-02-03</t>
+  </si>
+  <si>
+    <t>《魔发奇缘》</t>
+  </si>
+  <si>
+    <t>2011-05-28</t>
+  </si>
+  <si>
+    <t>《功夫熊猫2》</t>
+  </si>
+  <si>
+    <t>2011-07-08</t>
+  </si>
+  <si>
+    <t>《魁拔之十万火急》</t>
+  </si>
+  <si>
+    <t>2012-11-02</t>
+  </si>
+  <si>
+    <t>《无敌破坏王》</t>
+  </si>
+  <si>
+    <t>《无敌破坏王2》</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>《魁拔2之大战元泱界》</t>
+  </si>
+  <si>
+    <t>2013-11-27</t>
+  </si>
+  <si>
+    <t>《冰雪奇缘》</t>
+  </si>
+  <si>
+    <t>《冰雪奇缘：生日惊喜》</t>
+  </si>
+  <si>
+    <t>2014-02-27</t>
+  </si>
+  <si>
+    <t>《我的三体》动漫</t>
+  </si>
+  <si>
+    <t>2014-07-31</t>
+  </si>
+  <si>
+    <t>《龙之谷：破晓奇兵》</t>
+  </si>
+  <si>
+    <t>《画江湖之不良人：第一季》动漫</t>
+  </si>
+  <si>
+    <t>2014-10-01</t>
+  </si>
+  <si>
+    <t>《魁拔3之战神崛起》</t>
+  </si>
+  <si>
+    <t>2015-07-10</t>
+  </si>
+  <si>
+    <t>《西游记之大圣归来》</t>
+  </si>
+  <si>
+    <t>2015-10-08</t>
+  </si>
+  <si>
+    <t>《画江湖之灵主》动漫</t>
+  </si>
+  <si>
+    <t>2016-01-29</t>
+  </si>
+  <si>
+    <t>《功夫熊猫3》</t>
+  </si>
+  <si>
+    <t>2016-03-04</t>
+  </si>
+  <si>
+    <t>《疯狂动物城》</t>
+  </si>
+  <si>
+    <t>2016-06-09</t>
+  </si>
+  <si>
+    <t>《我的三体之罗辑传》动漫</t>
+  </si>
+  <si>
+    <t>2016-07-21</t>
+  </si>
+  <si>
+    <t>《画江湖之不良人：第二季》动漫</t>
+  </si>
+  <si>
+    <t>2016-12-01</t>
+  </si>
+  <si>
+    <t>《你的名字。》</t>
+  </si>
+  <si>
+    <t>2017-11-22</t>
+  </si>
+  <si>
+    <t>《寻梦环游记》</t>
+  </si>
+  <si>
+    <t>《丹特的午餐》</t>
+  </si>
+  <si>
+    <t>2018-08-03</t>
+  </si>
+  <si>
+    <t>《风语咒》</t>
+  </si>
+  <si>
+    <t>2018-10-25</t>
+  </si>
+  <si>
+    <t>《画江湖之不良人：第三季》动漫</t>
+  </si>
+  <si>
+    <t>2019-01-11</t>
+  </si>
+  <si>
+    <t>《白蛇：缘起》</t>
+  </si>
+  <si>
+    <t>《白蛇2：青蛇劫起》</t>
+  </si>
+  <si>
+    <t>2019-06-21</t>
+  </si>
+  <si>
+    <t>《玩具总动员4》</t>
+  </si>
+  <si>
+    <t>2019-07-26</t>
+  </si>
+  <si>
+    <t>《哪吒之魔童降世》</t>
+  </si>
+  <si>
+    <t>2019-11-22</t>
+  </si>
+  <si>
+    <t>《冰雪奇缘2》</t>
+  </si>
+  <si>
+    <t>2020-01-21</t>
+  </si>
+  <si>
+    <t>《我的三体之章北海传》动漫</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>《姜子牙》</t>
+  </si>
+  <si>
+    <t>2021-02-12</t>
+  </si>
+  <si>
+    <t>《新神榜：哪吒重生》</t>
+  </si>
+  <si>
+    <t>《新神榜：杨戬》</t>
+  </si>
+  <si>
+    <t>2021-03-05</t>
+  </si>
+  <si>
+    <t>《寻龙传说》</t>
+  </si>
+  <si>
+    <t>2021-04-29</t>
+  </si>
+  <si>
+    <t>《画江湖之不良人：第四季》动漫</t>
+  </si>
+  <si>
+    <t>2021-11-07</t>
+  </si>
+  <si>
+    <t>《英雄联盟：双城之战 第一季》</t>
+  </si>
+  <si>
+    <t>2021-12-17</t>
+  </si>
+  <si>
+    <t>《雄狮少年》</t>
+  </si>
+  <si>
+    <t>2022-01-20</t>
+  </si>
+  <si>
+    <t>《画江湖之不良人：第五季》动漫</t>
+  </si>
+  <si>
+    <t>2022-09-13</t>
+  </si>
+  <si>
+    <t>《赛博朋克：边缘行者》动漫</t>
+  </si>
+  <si>
+    <t>《深海》</t>
+  </si>
+  <si>
+    <t>2023-03-02</t>
+  </si>
+  <si>
+    <t>《画江湖之不良人：第六季》动漫</t>
+  </si>
+  <si>
+    <t>2023-04-05</t>
+  </si>
+  <si>
+    <t>《超级马力欧兄弟大电影》</t>
+  </si>
+  <si>
+    <t>2023-07-08</t>
+  </si>
+  <si>
+    <t>《长安三万里》</t>
+  </si>
+  <si>
+    <t>2023-07-20</t>
+  </si>
+  <si>
+    <t>《封神第一部：朝歌风云》</t>
+  </si>
+  <si>
+    <t>1998-02-27</t>
+  </si>
+  <si>
+    <t>《移魂都市》</t>
+  </si>
+  <si>
+    <t>1998-04-24</t>
+  </si>
+  <si>
+    <t>《追随》</t>
+  </si>
+  <si>
+    <t>1999-05-28</t>
+  </si>
+  <si>
+    <t>《异次元骇客》</t>
+  </si>
+  <si>
+    <t>2001-05-16</t>
+  </si>
+  <si>
+    <t>《穆赫兰道》</t>
+  </si>
+  <si>
+    <t>2001-08-10</t>
+  </si>
+  <si>
+    <t>《小岛惊魂》</t>
+  </si>
+  <si>
+    <t>2002-03-15</t>
+  </si>
+  <si>
+    <t>《生化危机》</t>
+  </si>
+  <si>
+    <t>2002-06-14</t>
+  </si>
+  <si>
+    <t>《谍影重重》</t>
+  </si>
+  <si>
+    <t>2003-02-21</t>
+  </si>
+  <si>
+    <t>《大卫·戈尔的一生》</t>
+  </si>
+  <si>
+    <t>2003-04-25</t>
+  </si>
+  <si>
+    <t>《致命ID》</t>
+  </si>
+  <si>
+    <t>2004-01-23</t>
+  </si>
+  <si>
+    <t>《蝴蝶效应》</t>
+  </si>
+  <si>
+    <t>2004-07-15</t>
+  </si>
+  <si>
+    <t>《谍影重重2》</t>
+  </si>
+  <si>
+    <t>2004-08-23</t>
+  </si>
+  <si>
+    <t>《生化危机2：启示录》</t>
+  </si>
+  <si>
+    <t>2005-07-29</t>
+  </si>
+  <si>
+    <t>《万能钥匙》</t>
+  </si>
+  <si>
+    <t>2006-04-21</t>
+  </si>
+  <si>
+    <t>《寂静岭》</t>
+  </si>
+  <si>
+    <t>2006-10-17</t>
+  </si>
+  <si>
+    <t>《致命魔术》</t>
+  </si>
+  <si>
+    <t>2007-08-03</t>
+  </si>
+  <si>
+    <t>《谍影重重3》</t>
+  </si>
+  <si>
+    <t>2007-09-21</t>
+  </si>
+  <si>
+    <t>《生化危机3：灭绝》</t>
+  </si>
+  <si>
+    <t>2009-07-24</t>
+  </si>
+  <si>
+    <t>《孤儿怨》</t>
+  </si>
+  <si>
+    <t>2009-10-16</t>
+  </si>
+  <si>
+    <t>《恐怖游轮》</t>
+  </si>
+  <si>
+    <t>2010-02-13</t>
+  </si>
+  <si>
+    <t>《禁闭岛》</t>
+  </si>
+  <si>
+    <t>2010-07-16</t>
+  </si>
+  <si>
+    <t>《盗梦空间》</t>
+  </si>
+  <si>
+    <t>2010-09-10</t>
+  </si>
+  <si>
+    <t>《生化危机4：战神再生》</t>
+  </si>
+  <si>
+    <t>2011-08-30</t>
+  </si>
+  <si>
+    <t>《源代码》</t>
+  </si>
+  <si>
+    <t>2012-03-09</t>
+  </si>
+  <si>
+    <t>《林中小屋》</t>
+  </si>
+  <si>
+    <t>2012-09-14</t>
+  </si>
+  <si>
+    <t>《生化危机5：惩罚》</t>
+  </si>
+  <si>
+    <t>2013-06-02</t>
+  </si>
+  <si>
+    <t>《僵尸世界大战》</t>
+  </si>
+  <si>
+    <t>2013-06-08</t>
+  </si>
+  <si>
+    <t>《招魂》</t>
+  </si>
+  <si>
+    <t>2013-09-19</t>
+  </si>
+  <si>
+    <t>《彗星来的那一夜》</t>
+  </si>
+  <si>
+    <t>2014-09-26</t>
+  </si>
+  <si>
+    <t>《消失的爱人》</t>
+  </si>
+  <si>
+    <t>2016-06-10</t>
+  </si>
+  <si>
+    <t>《招魂2》</t>
+  </si>
+  <si>
+    <t>2016-09-23</t>
+  </si>
+  <si>
+    <t>《看不见的客人》</t>
+  </si>
+  <si>
+    <t>2016-12-23</t>
+  </si>
+  <si>
+    <t>《生化危机6：终章》</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>《海市蜃楼》</t>
+  </si>
+  <si>
+    <t>2000-07-14</t>
+  </si>
+  <si>
+    <t>《X战警》</t>
+  </si>
+  <si>
+    <t>2002-05-03</t>
+  </si>
+  <si>
+    <t>《蜘蛛侠》</t>
+  </si>
+  <si>
+    <t>2003-09-29</t>
+  </si>
+  <si>
+    <t>《X战警2》</t>
+  </si>
+  <si>
+    <t>2004-06-30</t>
+  </si>
+  <si>
+    <t>《蜘蛛侠2》</t>
+  </si>
+  <si>
+    <t>2004-10-01</t>
+  </si>
+  <si>
+    <t>《地狱男爵》</t>
+  </si>
+  <si>
+    <t>2005-02-08</t>
+  </si>
+  <si>
+    <t>《地狱神探》</t>
+  </si>
+  <si>
+    <t>2005-06-29</t>
+  </si>
+  <si>
+    <t>《蝙蝠侠：侠影之谜》</t>
+  </si>
+  <si>
+    <t>2005-12-11</t>
+  </si>
+  <si>
+    <t>《V字仇杀队》</t>
+  </si>
+  <si>
+    <t>2006-09-08</t>
+  </si>
+  <si>
+    <t>《X战警：背水一战》</t>
+  </si>
+  <si>
+    <t>2007-05-03</t>
+  </si>
+  <si>
+    <t>《蜘蛛侠3》</t>
+  </si>
+  <si>
+    <t>2008-05-02</t>
+  </si>
+  <si>
+    <t>《钢铁侠》</t>
+  </si>
+  <si>
+    <t>2008-06-13</t>
+  </si>
+  <si>
+    <t>《无敌浩克》</t>
+  </si>
+  <si>
+    <t>2008-07-11</t>
+  </si>
+  <si>
+    <t>《地狱男爵2：黄金军团》</t>
+  </si>
+  <si>
+    <t>2008-07-18</t>
+  </si>
+  <si>
+    <t>《蝙蝠侠：黑暗骑士》</t>
+  </si>
+  <si>
+    <t>2009-03-06</t>
+  </si>
+  <si>
+    <t>《守望者》</t>
+  </si>
+  <si>
+    <t>2009-05-01</t>
+  </si>
+  <si>
+    <t>《金刚狼》</t>
+  </si>
+  <si>
+    <t>2010-05-07</t>
+  </si>
+  <si>
+    <t>《钢铁侠2》</t>
+  </si>
+  <si>
+    <t>2011-05-06</t>
+  </si>
+  <si>
+    <t>《雷神》</t>
+  </si>
+  <si>
+    <t>《神盾顾问》</t>
+  </si>
+  <si>
+    <t>2011-06-03</t>
+  </si>
+  <si>
+    <t>《X战警：第一战》</t>
+  </si>
+  <si>
+    <t>2011-07-22</t>
+  </si>
+  <si>
+    <t>《美国队长：复仇者先锋》</t>
+  </si>
+  <si>
+    <t>《寻找雷神锤子路上发生的趣事》</t>
+  </si>
+  <si>
+    <t>2012-05-04</t>
+  </si>
+  <si>
+    <t>《复仇者联盟》</t>
+  </si>
+  <si>
+    <t>《47号物品》</t>
+  </si>
+  <si>
+    <t>2012-08-27</t>
+  </si>
+  <si>
+    <t>《蝙蝠侠：黑暗骑士崛起》</t>
+  </si>
+  <si>
+    <t>2013-05-03</t>
+  </si>
+  <si>
+    <t>《钢铁侠3》</t>
+  </si>
+  <si>
+    <t>《探员卡特》</t>
+  </si>
+  <si>
+    <t>2013-07-26</t>
+  </si>
+  <si>
+    <t>《金刚狼2》</t>
+  </si>
+  <si>
+    <t>2013-11-08</t>
+  </si>
+  <si>
+    <t>《雷神2：黑暗世界》</t>
+  </si>
+  <si>
+    <t>《王者万岁》</t>
+  </si>
+  <si>
+    <t>2014-04-04</t>
+  </si>
+  <si>
+    <t>《美国队长2：冬日战士》</t>
+  </si>
+  <si>
+    <t>2014-05-23</t>
+  </si>
+  <si>
+    <t>《X战警：逆转未来》</t>
+  </si>
+  <si>
+    <t>2014-08-01</t>
+  </si>
+  <si>
+    <t>《银河护卫队》</t>
+  </si>
+  <si>
+    <t>2014-10-24</t>
+  </si>
+  <si>
+    <t>《康斯坦丁》</t>
+  </si>
+  <si>
+    <t>2015-01-06</t>
+  </si>
+  <si>
+    <t>《特工卡特：第一季》美剧</t>
+  </si>
+  <si>
+    <t>2015-05-01</t>
+  </si>
+  <si>
+    <t>《复仇者联盟2：奥创纪元》</t>
+  </si>
+  <si>
+    <t>2015-07-17</t>
+  </si>
+  <si>
+    <t>《蚁人》</t>
+  </si>
+  <si>
+    <t>2016-01-19</t>
+  </si>
+  <si>
+    <t>《特工卡特：第二季》美剧</t>
+  </si>
+  <si>
+    <t>2016-02-12</t>
+  </si>
+  <si>
+    <t>《死侍》</t>
+  </si>
+  <si>
+    <t>2016-05-06</t>
+  </si>
+  <si>
+    <t>《美国队长3：内战》</t>
+  </si>
+  <si>
+    <t>《X战警：天启》</t>
+  </si>
+  <si>
+    <t>2016-11-04</t>
+  </si>
+  <si>
+    <t>《奇异博士》</t>
+  </si>
+  <si>
+    <t>2017-03-03</t>
+  </si>
+  <si>
+    <t>《金刚狼3：殊死一战》</t>
+  </si>
+  <si>
+    <t>2017-05-05</t>
+  </si>
+  <si>
+    <t>《银河护卫队2》</t>
+  </si>
+  <si>
+    <t>2017-06-02</t>
+  </si>
+  <si>
+    <t>《神奇女侠》</t>
+  </si>
+  <si>
+    <t>2017-07-07</t>
+  </si>
+  <si>
+    <t>《蜘蛛侠：英雄归来》</t>
+  </si>
+  <si>
+    <t>2017-11-03</t>
+  </si>
+  <si>
+    <t>《雷神3：诸神黄昏》</t>
+  </si>
+  <si>
+    <t>2018-02-16</t>
+  </si>
+  <si>
+    <t>《黑豹》</t>
+  </si>
+  <si>
+    <t>2018-04-27</t>
+  </si>
+  <si>
+    <t>《复仇者联盟3：无限战争》</t>
+  </si>
+  <si>
+    <t>2018-05-18</t>
+  </si>
+  <si>
+    <t>《死侍2：我爱我家》</t>
+  </si>
+  <si>
+    <t>2018-07-06</t>
+  </si>
+  <si>
+    <t>《蚁人2：黄蜂女现身》</t>
+  </si>
+  <si>
+    <t>2018-12-07</t>
+  </si>
+  <si>
+    <t>《海王》</t>
+  </si>
+  <si>
+    <t>2018-12-14</t>
+  </si>
+  <si>
+    <t>《蜘蛛侠：平行宇宙》</t>
+  </si>
+  <si>
+    <t>2019-03-08</t>
+  </si>
+  <si>
+    <t>《惊奇队长》</t>
+  </si>
+  <si>
+    <t>2019-04-26</t>
+  </si>
+  <si>
+    <t>《复仇者联盟4：终局之战》</t>
+  </si>
+  <si>
+    <t>《我是格鲁特》</t>
+  </si>
+  <si>
+    <t>2019-07-02</t>
+  </si>
+  <si>
+    <t>《蜘蛛侠：英雄远征》</t>
+  </si>
+  <si>
+    <t>《彼得的待办事项清单》</t>
+  </si>
+  <si>
+    <t>2019-10-04</t>
+  </si>
+  <si>
+    <t>《小丑》</t>
+  </si>
+  <si>
+    <t>2021-03-18</t>
+  </si>
+  <si>
+    <t>《扎克·施奈德版正义联盟》</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>《洛基：第一季》美剧</t>
+  </si>
+  <si>
+    <t>2021-01-15</t>
+  </si>
+  <si>
+    <t>《旺达·幻视》美剧</t>
+  </si>
+  <si>
+    <t>2021-08-11</t>
+  </si>
+  <si>
+    <t>《假如…？：第一季》</t>
+  </si>
+  <si>
+    <t>1953-08-20</t>
+  </si>
+  <si>
+    <t>《罗马假日》</t>
+  </si>
+  <si>
+    <t>1989-12-14</t>
+  </si>
+  <si>
+    <t>《赌神》</t>
+  </si>
+  <si>
+    <t>1990-08-18</t>
+  </si>
+  <si>
+    <t>《赌圣》</t>
+  </si>
+  <si>
+    <t>1990-12-13</t>
+  </si>
+  <si>
+    <t>《赌侠》</t>
+  </si>
+  <si>
+    <t>1991-07-18</t>
+  </si>
+  <si>
+    <t>《逃学威龙》</t>
+  </si>
+  <si>
+    <t>1991-08-21</t>
+  </si>
+  <si>
+    <t>《赌侠2：上海滩赌圣》</t>
+  </si>
+  <si>
+    <t>1992-04-09</t>
+  </si>
+  <si>
+    <t>《逃学威龙2》</t>
+  </si>
+  <si>
+    <t>1992-08-27</t>
+  </si>
+  <si>
+    <t>《新龙门客栈》</t>
+  </si>
+  <si>
+    <t>1993-02-12</t>
+  </si>
+  <si>
+    <t>《土拨鼠之日》</t>
+  </si>
+  <si>
+    <t>1993-11-30</t>
+  </si>
+  <si>
+    <t>《辛德勒的名单》</t>
+  </si>
+  <si>
+    <t>1994-02-03</t>
+  </si>
+  <si>
+    <t>《破坏之王》</t>
+  </si>
+  <si>
+    <t>1994-03-31</t>
+  </si>
+  <si>
+    <t>《九品芝麻官》</t>
+  </si>
+  <si>
+    <t>1994-06-23</t>
+  </si>
+  <si>
+    <t>《阿甘正传》</t>
+  </si>
+  <si>
+    <t>1994-09-10</t>
+  </si>
+  <si>
+    <t>《肖申克的救赎》</t>
+  </si>
+  <si>
+    <t>1994-09-14</t>
+  </si>
+  <si>
+    <t>《这个杀手不太冷》</t>
+  </si>
+  <si>
+    <t>1994-10-13</t>
+  </si>
+  <si>
+    <t>《国产凌凌漆》</t>
+  </si>
+  <si>
+    <t>1994-12-15</t>
+  </si>
+  <si>
+    <t>《赌神2》</t>
+  </si>
+  <si>
+    <t>1995-07-06</t>
+  </si>
+  <si>
+    <t>《回魂夜》</t>
+  </si>
+  <si>
+    <t>1995-09-01</t>
+  </si>
+  <si>
+    <t>《阳光灿烂的日子》</t>
+  </si>
+  <si>
+    <t>1996-02-16</t>
+  </si>
+  <si>
+    <t>《大内密探零零发》</t>
+  </si>
+  <si>
+    <t>1996-12-21</t>
+  </si>
+  <si>
+    <t>《食神》</t>
+  </si>
+  <si>
+    <t>1997-11-01</t>
+  </si>
+  <si>
+    <t>《泰坦尼克号》</t>
+  </si>
+  <si>
+    <t>1999-02-13</t>
+  </si>
+  <si>
+    <t>《喜剧之王》</t>
+  </si>
+  <si>
+    <t>2001-07-12</t>
+  </si>
+  <si>
+    <t>《少林足球》</t>
+  </si>
+  <si>
+    <t>2001-08-03</t>
+  </si>
+  <si>
+    <t>《公主日记》</t>
+  </si>
+  <si>
+    <t>2002-12-16</t>
+  </si>
+  <si>
+    <t>《猫鼠游戏》</t>
+  </si>
+  <si>
+    <t>2003-09-05</t>
+  </si>
+  <si>
+    <t>《无间道》</t>
+  </si>
+  <si>
+    <t>2004-03-17</t>
+  </si>
+  <si>
+    <t>《放牛班的春天》</t>
+  </si>
+  <si>
+    <t>2004-12-23</t>
+  </si>
+  <si>
+    <t>《功夫》</t>
+  </si>
+  <si>
+    <t>2006-01-20</t>
+  </si>
+  <si>
+    <t>《歌舞青春》</t>
+  </si>
+  <si>
+    <t>《太阳照常升起》</t>
+  </si>
+  <si>
+    <t>2008-01-30</t>
+  </si>
+  <si>
+    <t>《长江七号》</t>
+  </si>
+  <si>
+    <t>2009-09-16</t>
+  </si>
+  <si>
+    <t>《建国大业》</t>
+  </si>
+  <si>
+    <t>2009-12-25</t>
+  </si>
+  <si>
+    <t>《三傻大闹宝莱坞》</t>
+  </si>
+  <si>
+    <t>2010-12-16</t>
+  </si>
+  <si>
+    <t>《让子弹飞》</t>
+  </si>
+  <si>
+    <t>2011-06-15</t>
+  </si>
+  <si>
+    <t>《建党伟业》</t>
+  </si>
+  <si>
+    <t>2014-02-06</t>
+  </si>
+  <si>
+    <t>《布达佩斯大饭店》</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>《夏洛特烦恼》</t>
+  </si>
+  <si>
+    <t>2016-05-13</t>
+  </si>
+  <si>
+    <t>《釜山行》</t>
+  </si>
+  <si>
+    <t>2017-07-20</t>
+  </si>
+  <si>
+    <t>《闪光少女》</t>
+  </si>
+  <si>
+    <t>2017-07-27</t>
+  </si>
+  <si>
+    <t>《建军大业》</t>
+  </si>
+  <si>
+    <t>2018-07-05</t>
+  </si>
+  <si>
+    <t>《我不是药神》</t>
+  </si>
+  <si>
+    <t>2018-07-27</t>
+  </si>
+  <si>
+    <t>《西虹市首富》</t>
+  </si>
+  <si>
+    <t>2018-09-11</t>
+  </si>
+  <si>
+    <t>《绿皮书》</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>《后翼弃兵》美剧</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>《黑白魔女库伊拉》</t>
+  </si>
+  <si>
+    <t>2023-07-21</t>
+  </si>
+  <si>
+    <t>《奥本海默》</t>
   </si>
 </sst>
 </file>
@@ -80,15 +1661,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="5"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="楷体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="5"/>
       <name val="楷体"/>
       <charset val="134"/>
     </font>
@@ -714,27 +2295,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1047,14 +2631,263 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="69.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1064,14 +2897,430 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="F47 E45"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="69.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1081,52 +3330,527 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="69.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="22.5" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1138,15 +3862,331 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="69.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1154,15 +4194,552 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="69.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C57" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1170,15 +4747,457 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="69.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C48" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>